--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A17DC-910F-4C4D-A551-5244E67AFC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80B50D87-E3BC-453B-9466-CC882DA8D9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{92CE8517-998F-4750-BBAC-4AC53242859F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92CE8517-998F-4750-BBAC-4AC53242859F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
+    <sheet name="Crate" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>Container Name</t>
   </si>
@@ -49,9 +48,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Crate</t>
   </si>
   <si>
@@ -280,13 +276,7 @@
     <t>Workbench Assembly</t>
   </si>
   <si>
-    <t>Spalte2</t>
-  </si>
-  <si>
-    <t>Spalte3</t>
-  </si>
-  <si>
-    <t>Spalte4</t>
+    <t>A.D.C. 109</t>
   </si>
 </sst>
 </file>
@@ -302,14 +292,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -396,7 +385,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -404,112 +393,70 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -525,24 +472,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{73F30083-09F7-4035-8EEB-A2445BF7EC6B}" name="Tabelle5" displayName="Tabelle5" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:D1048576" xr:uid="{73F30083-09F7-4035-8EEB-A2445BF7EC6B}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F5E7CA6D-0925-455A-BFFE-C121E6F28230}" name="Electronic" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{03910A03-7BCF-428D-9BB6-D4CD23D4EDF1}" name="Spalte2"/>
-    <tableColumn id="3" xr3:uid="{8878C2CF-F97D-4294-BB9F-E68CF902D904}" name="Spalte3"/>
-    <tableColumn id="4" xr3:uid="{50FC6AE6-CC07-4498-B146-94EB68A62394}" name="Spalte4"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,425 +791,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006E9EE-09DA-47F6-AFF3-2ECABF865A26}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1289,74 +1171,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{509EFE9C-47C2-49C2-92AC-7097E4F8B3D0}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" style="18" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5295624-5B1D-45FF-BD3B-F9A3005E6D1F}">
   <dimension ref="A1:B63"/>
   <sheetViews>
@@ -1371,353 +1185,353 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
